--- a/biology/Botanique/Ruellia_schnellii/Ruellia_schnellii.xlsx
+++ b/biology/Botanique/Ruellia_schnellii/Ruellia_schnellii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruellia schnellii est une espèce de plantes herbacées ou arbustive à grandes fleurs rouges du genre Ruellia de la famille des Acanthaceae. Elle n'est connue que dans trois localités, dans l'ouest de la Guyane.
  Portail de la Guyane   Portail de la botanique                    </t>
